--- a/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000409</t>
+          <t>002851</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华环保产业股票</t>
+          <t>南方品质优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>005123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方隆元产业主题混合</t>
+          <t>南方优享分红灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160612</t>
+          <t>008132</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华丰收债券</t>
+          <t>鹏华价值驱动混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.41</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>571002</t>
+          <t>008546</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺德主题灵活配置混合</t>
+          <t>南方产业优势两年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.17</t>
+          <t>33.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>68.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000955</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方产业活力股票</t>
+          <t>南方隆元产业主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>000409</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>鹏华环保产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009096</t>
+          <t>160612</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华安泽混合A</t>
+          <t>鹏华丰收债券</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28.44</t>
+          <t>24.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009097</t>
+          <t>004703</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华安泽混合C</t>
+          <t>南方兴盛先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28.44</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009059</t>
+          <t>000955</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方沪深300指数增强A</t>
+          <t>南方产业活力股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009060</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方沪深300指数增强C</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004703</t>
+          <t>009258</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方兴盛先锋灵活配置混合</t>
+          <t>西部利得景瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.80</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>009059</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>南方沪深300指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>36.67</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004819</t>
+          <t>009781</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
+          <t>南方产业优势两年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36.67</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>68.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005123</t>
+          <t>009096</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合A</t>
+          <t>鹏华安泽混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006587</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合C</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>571002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>诺德主题灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008132</t>
+          <t>009060</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华价值驱动混合</t>
+          <t>南方沪深300指数增强C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008546</t>
+          <t>006587</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>南方产业优势两年持有期混合A</t>
+          <t>南方优享分红灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>68.85</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009781</t>
+          <t>009097</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>南方产业优势两年持有期混合C</t>
+          <t>鹏华安泽混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>68.85</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1326,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004703</t>
+          <t>206009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方兴盛先锋灵活配置混合</t>
+          <t>鹏华新兴产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>91.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005028</t>
+          <t>002851</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华研究精选灵活配置混合</t>
+          <t>南方品质优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>19.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005123</t>
+          <t>005028</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合A</t>
+          <t>鹏华研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006587</t>
+          <t>005123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合C</t>
+          <t>南方优享分红灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.33</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>8.29</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>206009</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华新兴产业混合</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005472</t>
+          <t>008132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国价值驱动灵活配置混合A</t>
+          <t>鹏华价值驱动混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005473</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国价值驱动灵活配置混合C</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>91.68</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006230</t>
+          <t>001521</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华研究驱动混合</t>
+          <t>国寿安保成长优选股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>004703</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>南方兴盛先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001521</t>
+          <t>009258</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保成长优选股票</t>
+          <t>西部利得景瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001743</t>
+          <t>005472</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺安优选回报灵活配置混合</t>
+          <t>富国价值驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>83.52</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1472,15 +1822,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>78.75</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>005473</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>富国价值驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>006230</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>鹏华研究驱动混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>006587</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>南方优享分红灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008132</t>
+          <t>001743</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华价值驱动混合</t>
+          <t>诺安优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,4 +2513,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3717</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2987,4 +2988,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2996,7 +2997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3007,17 +3008,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3027,14 +3048,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.35</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3043,14 +3086,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.96</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3059,14 +3124,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.970000000000001</v>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3075,13 +3162,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3433,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3444,17 +3445,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3464,14 +3485,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.46</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -3480,14 +3575,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>6.35</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="4">
@@ -3496,14 +3591,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>6.96</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="5">
@@ -3512,14 +3607,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>8.970000000000001</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="6">
@@ -3528,13 +3623,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3528,7 +3529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,17 +3540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3559,14 +3580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.45</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3575,14 +3618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.46</v>
       </c>
     </row>
     <row r="4">
@@ -3591,14 +3656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.35</v>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3607,14 +3694,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.96</v>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3623,14 +3732,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.970000000000001</v>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3639,13 +3770,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>2.66</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.45</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5.46</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>6.35</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>6.96</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>8.970000000000001</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.57</v>
       </c>
     </row>
@@ -600,6 +617,932 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5484</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6711</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国周期优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6282</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>561120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,7 +2470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2001,7 +2944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2513,7 +3456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3215,7 +4158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002851-麦格米特.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>5.84</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>2.66</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.45</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5.46</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>6.35</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>6.96</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>8.970000000000001</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.57</v>
       </c>
     </row>
@@ -616,7 +633,1525 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160612</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华丰收债券</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国周期优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4562</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1542,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1940,7 +3475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2034,7 +3569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2470,7 +4005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2944,7 +4479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3456,7 +4991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4156,858 +5691,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002851</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方品质优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0066</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005123</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8244</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008132</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华价值驱动混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6584</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008546</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方产业优势两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>33.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>68.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6525</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>202007</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方隆元产业主题混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6025</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000409</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华环保产业股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3177</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160612</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华丰收债券</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.41</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3102</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2976</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000955</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方产业活力股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2457</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>673060</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1822</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1054</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009258</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0879</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009059</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0738</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009781</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方产业优势两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>68.85</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0699</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009096</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0434</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001479</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中邮风格轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>571002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺德主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>79.17</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009060</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006587</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009097</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>